--- a/data-raw/calc_nemindex/Nemaplex_NINJA_test.xlsx
+++ b/data-raw/calc_nemindex/Nemaplex_NINJA_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whkyg\Desktop\BaiduSyncdisk\easynem\data-raw\calc_nemindex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F98817E-3D05-4CC8-A84B-8E7B71956C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCDF07-061B-492C-8E4E-E0897806362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="7440" windowWidth="28800" windowHeight="15370" xr2:uid="{AAF8D731-6DCC-430F-AFB4-C1D48CA598A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AAF8D731-6DCC-430F-AFB4-C1D48CA598A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Nemaplex_NINJA_test" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>Paraxonchium</t>
   </si>
   <si>
-    <t>Prismatolaimus</t>
-  </si>
-  <si>
     <t>Protorhabditis</t>
   </si>
   <si>
@@ -224,6 +221,10 @@
   </si>
   <si>
     <t>Y8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prismatolaimus</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1178,11 +1179,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CE6EBC-6958-4B03-81D1-C2B78E5633C8}">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="25" max="25" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
@@ -1252,39 +1256,39 @@
         <v>21</v>
       </c>
       <c r="Y1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1382,10 +1386,10 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>87</v>
@@ -1483,10 +1487,10 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1584,10 +1588,10 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1685,10 +1689,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1786,10 +1790,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1887,10 +1891,10 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -1988,10 +1992,10 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2089,10 +2093,10 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2190,10 +2194,10 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -2291,10 +2295,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2392,10 +2396,10 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2493,10 +2497,10 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2594,10 +2598,10 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2695,10 +2699,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2796,10 +2800,10 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -2897,10 +2901,10 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>28</v>
@@ -2998,10 +3002,10 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3099,10 +3103,10 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>41</v>
@@ -3200,10 +3204,10 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -3301,10 +3305,10 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>14</v>
@@ -3402,10 +3406,10 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -3503,10 +3507,10 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <v>53</v>
@@ -3604,10 +3608,10 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3705,10 +3709,10 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3806,10 +3810,10 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3907,10 +3911,10 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>63</v>
@@ -4008,10 +4012,10 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>40</v>
@@ -4109,10 +4113,10 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>23</v>
@@ -4210,10 +4214,10 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>47</v>
@@ -4311,10 +4315,10 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -4412,10 +4416,10 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>0</v>
